--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romej\Desktop\Project_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1950EEA-342D-4DE4-A932-5489EC77E8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98B7369-9BAF-45DD-B620-B53F494CDEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88482E29-E486-40FB-9031-BC69834B8B4E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>epochs</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>LSTM OPTIMIZATION SETTINGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -197,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -205,11 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -534,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92FDD8F-9864-4BA0-B218-0295BC80CFF1}">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,44 +549,43 @@
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="17.21875" customWidth="1"/>
     <col min="8" max="8" width="17.77734375" customWidth="1"/>
-    <col min="9" max="18" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>50</v>
       </c>
@@ -639,7 +637,7 @@
         <v>5.37</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -665,7 +663,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>150</v>
       </c>
@@ -691,7 +689,7 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>200</v>
       </c>
@@ -717,33 +715,33 @@
         <v>5.21</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>300</v>
       </c>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9">
-        <v>50</v>
-      </c>
-      <c r="D10" s="9">
-        <v>16</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1">
         <v>0.16</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="1">
         <v>0.82</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="1">
         <v>4.92</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>500</v>
       </c>
@@ -769,7 +767,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>700</v>
       </c>
@@ -795,43 +793,33 @@
         <v>4.6900000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>300</v>
       </c>
-      <c r="B13" s="10">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
         <v>100</v>
       </c>
-      <c r="D13" s="10">
-        <v>16</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="7">
+        <v>16</v>
+      </c>
+      <c r="E13" s="7">
         <v>0.15</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="7">
         <v>0.82</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="7">
         <v>4.8600000000000003</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>300</v>
       </c>
@@ -857,7 +845,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>300</v>
       </c>
@@ -883,7 +871,7 @@
         <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>300</v>
       </c>
@@ -910,16 +898,16 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -1156,128 +1144,128 @@
       </c>
     </row>
     <row r="32" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
-        <v>50</v>
-      </c>
-      <c r="B32" s="9">
-        <v>1</v>
-      </c>
-      <c r="C32" s="9">
+      <c r="A32" s="1">
+        <v>50</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
         <v>400</v>
       </c>
-      <c r="D32" s="9">
-        <v>16</v>
-      </c>
-      <c r="E32" s="9">
+      <c r="D32" s="1">
+        <v>16</v>
+      </c>
+      <c r="E32" s="1">
         <v>0.01</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="1">
         <v>0.09</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="1">
         <v>0.26</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="1">
         <v>0.54</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-    </row>
-    <row r="33" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>100</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="1">
         <v>2</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="9">
-        <v>16</v>
-      </c>
-      <c r="E33" s="9">
+      <c r="D33" s="1">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1">
         <v>0.01</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="1">
         <v>0.1</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="1">
         <v>0.32</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>200</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="1">
         <v>2</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="9">
-        <v>16</v>
-      </c>
-      <c r="E34" s="9">
+      <c r="D34" s="1">
+        <v>16</v>
+      </c>
+      <c r="E34" s="1">
         <v>0.01</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="1">
         <v>0.05</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="1">
         <v>0.6</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="1">
         <v>0.45</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
-        <v>50</v>
-      </c>
-      <c r="B35" s="9">
+      <c r="A35" s="1">
+        <v>50</v>
+      </c>
+      <c r="B35" s="1">
         <v>3</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="9">
-        <v>16</v>
-      </c>
-      <c r="E35" s="9">
+      <c r="D35" s="1">
+        <v>16</v>
+      </c>
+      <c r="E35" s="1">
         <v>0.01</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="1">
         <v>0.09</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="1">
         <v>0.51</v>
       </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
@@ -1305,29 +1293,29 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>300</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="1">
         <v>3</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="1">
         <v>12</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="1">
         <v>0.01</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="1">
         <v>0.04</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="1">
         <v>0.7</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="1">
         <v>0.52</v>
       </c>
     </row>
@@ -1341,7 +1329,7 @@
       <c r="C38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="8">
         <v>16</v>
       </c>
       <c r="E38" s="4">
@@ -1358,226 +1346,226 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="14"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="9" t="s">
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="9">
-        <v>50</v>
-      </c>
-      <c r="B46" s="9">
-        <v>1</v>
-      </c>
-      <c r="C46" s="9">
-        <v>50</v>
-      </c>
-      <c r="D46" s="9">
-        <v>16</v>
-      </c>
-      <c r="E46" s="9">
+      <c r="A46" s="1">
+        <v>50</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>50</v>
+      </c>
+      <c r="D46" s="1">
+        <v>16</v>
+      </c>
+      <c r="E46" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="1">
         <v>0.85</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="1">
         <v>0.3</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="1">
         <v>4.26</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="9">
+      <c r="A47" s="1">
         <v>100</v>
       </c>
-      <c r="B47" s="9">
-        <v>1</v>
-      </c>
-      <c r="C47" s="9">
-        <v>50</v>
-      </c>
-      <c r="D47" s="9">
-        <v>16</v>
-      </c>
-      <c r="E47" s="9">
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>50</v>
+      </c>
+      <c r="D47" s="1">
+        <v>16</v>
+      </c>
+      <c r="E47" s="1">
         <v>1.03</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="1">
         <v>0.85</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="1">
         <v>0.31</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="1">
         <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
+      <c r="A48" s="1">
         <v>150</v>
       </c>
-      <c r="B48" s="9">
-        <v>1</v>
-      </c>
-      <c r="C48" s="9">
-        <v>50</v>
-      </c>
-      <c r="D48" s="9">
-        <v>16</v>
-      </c>
-      <c r="E48" s="9">
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>50</v>
+      </c>
+      <c r="D48" s="1">
+        <v>16</v>
+      </c>
+      <c r="E48" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="1">
         <v>0.86</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="1">
         <v>0.31</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="1">
         <v>3.99</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
         <v>300</v>
       </c>
-      <c r="B49" s="9">
-        <v>1</v>
-      </c>
-      <c r="C49" s="9">
-        <v>50</v>
-      </c>
-      <c r="D49" s="9">
-        <v>16</v>
-      </c>
-      <c r="E49" s="9">
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>50</v>
+      </c>
+      <c r="D49" s="1">
+        <v>16</v>
+      </c>
+      <c r="E49" s="1">
         <v>0.96</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="1">
         <v>0.8</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="1">
         <v>0.41</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="1">
         <v>3.21</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
         <v>400</v>
       </c>
-      <c r="B50" s="9">
-        <v>1</v>
-      </c>
-      <c r="C50" s="9">
-        <v>50</v>
-      </c>
-      <c r="D50" s="9">
-        <v>16</v>
-      </c>
-      <c r="E50" s="9">
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>50</v>
+      </c>
+      <c r="D50" s="1">
+        <v>16</v>
+      </c>
+      <c r="E50" s="1">
         <v>0.87</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="1">
         <v>0.75</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="1">
         <v>0.47</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="1">
         <v>2.7</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>400</v>
       </c>
-      <c r="B51" s="9">
-        <v>1</v>
-      </c>
-      <c r="C51" s="9">
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
         <v>100</v>
       </c>
-      <c r="D51" s="9">
-        <v>16</v>
-      </c>
-      <c r="E51" s="9">
+      <c r="D51" s="1">
+        <v>16</v>
+      </c>
+      <c r="E51" s="1">
         <v>0.9</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="1">
         <v>0.76</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="1">
         <v>0.46</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="1">
         <v>2.81</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>400</v>
       </c>
-      <c r="B52" s="9">
-        <v>1</v>
-      </c>
-      <c r="C52" s="9">
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
         <v>300</v>
       </c>
-      <c r="D52" s="9">
-        <v>16</v>
-      </c>
-      <c r="E52" s="9">
+      <c r="D52" s="1">
+        <v>16</v>
+      </c>
+      <c r="E52" s="1">
         <v>1.04</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="1">
         <v>0.82</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="1">
         <v>0.36</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="1">
         <v>3.21</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>400</v>
       </c>
@@ -1603,113 +1591,86 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="10">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
         <v>400</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="7">
         <v>2</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="10">
-        <v>16</v>
-      </c>
-      <c r="E54" s="10">
+      <c r="D54" s="7">
+        <v>16</v>
+      </c>
+      <c r="E54" s="7">
         <v>0.45</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="7">
         <v>0.49</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="7">
         <v>0.72</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="7">
         <v>2.98</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>400</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="1">
         <v>3</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="9">
-        <v>16</v>
-      </c>
-      <c r="E55" s="9">
+      <c r="D55" s="1">
+        <v>16</v>
+      </c>
+      <c r="E55" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="1">
         <v>0.41</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="1">
         <v>0.8</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="1">
         <v>3.52</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
         <v>400</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="1">
         <v>3</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="1">
         <v>12</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="1">
         <v>0.37</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="1">
         <v>0.83</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="1">
         <v>3.51</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
+      <c r="I56" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
